--- a/public/templates/data siswa.xlsx
+++ b/public/templates/data siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6cc8eef82d87cae/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F74A30-0B09-4CCC-8A5F-C6DB6263F69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{52F74A30-0B09-4CCC-8A5F-C6DB6263F69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0939602-5F63-4E88-9007-B74685B73450}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8182C26E-4B5F-4042-8C14-F73D1A52E2D9}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>nis</t>
   </si>
   <si>
-    <t>nama_siswa</t>
-  </si>
-  <si>
     <t>badags</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>nopal</t>
+  </si>
+  <si>
+    <t>nama</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -443,7 +443,7 @@
         <v>12345678</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -451,7 +451,7 @@
         <v>12345679</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -459,7 +459,7 @@
         <v>12345680</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
